--- a/jpcore-r4b/develop/ValueSet-jp-observation-bodymeasurement-code-vs.xlsx
+++ b/jpcore-r4b/develop/ValueSet-jp-observation-bodymeasurement-code-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.0-dev</t>
   </si>
   <si>
     <t>Name</t>
@@ -93,7 +93,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+    <t>Copyright MEDIS-DC 医療情報システム開発センター</t>
   </si>
   <si>
     <t>Immutable</t>
